--- a/HumanResoureAPI/Resources/ExportFile/HieuQuaCV/Sumtime.xlsx
+++ b/HumanResoureAPI/Resources/ExportFile/HieuQuaCV/Sumtime.xlsx
@@ -105,9 +105,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -627,7 +626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -752,16 +751,28 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -773,6 +784,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -781,54 +840,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1214,13 +1225,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" ySplit="3" topLeftCell="N22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q29" sqref="Q29"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1230,12 +1241,12 @@
     <col min="3" max="3" width="11.42578125" style="12" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="43" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" style="12" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="11" customWidth="1"/>
     <col min="9" max="9" width="9" style="12" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" style="12" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" style="12" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="43" customWidth="1"/>
     <col min="12" max="12" width="7.28515625" style="12" customWidth="1"/>
     <col min="13" max="13" width="8.140625" style="12" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
@@ -1246,100 +1257,100 @@
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="53" t="s">
+      <c r="L2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="54"/>
-    </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="M2" s="56"/>
+    </row>
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
     </row>
     <row r="4" spans="1:13" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="55" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="59"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="58" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="58" t="s">
+      <c r="H5" s="67"/>
+      <c r="I5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="62" t="s">
+      <c r="K5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="65"/>
+      <c r="M5" s="67"/>
     </row>
     <row r="6" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="63"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="30" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="59"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="63"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="65"/>
       <c r="L6" s="30" t="s">
         <v>7</v>
       </c>
@@ -1353,12 +1364,12 @@
       <c r="C7" s="28"/>
       <c r="D7" s="17"/>
       <c r="E7" s="19"/>
-      <c r="F7" s="42"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="19"/>
       <c r="H7" s="20"/>
       <c r="I7" s="17"/>
       <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+      <c r="K7" s="44"/>
       <c r="L7" s="19"/>
       <c r="M7" s="20"/>
     </row>
@@ -1368,12 +1379,12 @@
       <c r="C8" s="3"/>
       <c r="D8" s="21"/>
       <c r="E8" s="22"/>
-      <c r="F8" s="43"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="22"/>
       <c r="H8" s="23"/>
       <c r="I8" s="21"/>
       <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
+      <c r="K8" s="45"/>
       <c r="L8" s="22"/>
       <c r="M8" s="23"/>
     </row>
@@ -1383,12 +1394,12 @@
       <c r="C9" s="3"/>
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
-      <c r="F9" s="43"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="22"/>
       <c r="H9" s="23"/>
       <c r="I9" s="21"/>
       <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
+      <c r="K9" s="45"/>
       <c r="L9" s="22"/>
       <c r="M9" s="23"/>
     </row>
@@ -1398,12 +1409,12 @@
       <c r="C10" s="3"/>
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
-      <c r="F10" s="43"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="22"/>
       <c r="H10" s="23"/>
       <c r="I10" s="21"/>
       <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
+      <c r="K10" s="45"/>
       <c r="L10" s="22"/>
       <c r="M10" s="23"/>
     </row>
@@ -1413,12 +1424,12 @@
       <c r="C11" s="3"/>
       <c r="D11" s="21"/>
       <c r="E11" s="22"/>
-      <c r="F11" s="43"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="22"/>
       <c r="H11" s="23"/>
       <c r="I11" s="21"/>
       <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
+      <c r="K11" s="45"/>
       <c r="L11" s="22"/>
       <c r="M11" s="23"/>
     </row>
@@ -1428,12 +1439,12 @@
       <c r="C12" s="3"/>
       <c r="D12" s="21"/>
       <c r="E12" s="22"/>
-      <c r="F12" s="43"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="22"/>
       <c r="H12" s="23"/>
       <c r="I12" s="21"/>
       <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
+      <c r="K12" s="45"/>
       <c r="L12" s="22"/>
       <c r="M12" s="23"/>
     </row>
@@ -1443,12 +1454,12 @@
       <c r="C13" s="3"/>
       <c r="D13" s="18"/>
       <c r="E13" s="22"/>
-      <c r="F13" s="43"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="22"/>
       <c r="H13" s="23"/>
       <c r="I13" s="18"/>
       <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
+      <c r="K13" s="45"/>
       <c r="L13" s="22"/>
       <c r="M13" s="23"/>
     </row>
@@ -1458,12 +1469,12 @@
       <c r="C14" s="3"/>
       <c r="D14" s="18"/>
       <c r="E14" s="22"/>
-      <c r="F14" s="43"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="22"/>
       <c r="H14" s="23"/>
       <c r="I14" s="18"/>
       <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
+      <c r="K14" s="45"/>
       <c r="L14" s="22"/>
       <c r="M14" s="23"/>
     </row>
@@ -1473,12 +1484,12 @@
       <c r="C15" s="3"/>
       <c r="D15" s="21"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="43"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="22"/>
       <c r="H15" s="23"/>
       <c r="I15" s="21"/>
       <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
+      <c r="K15" s="45"/>
       <c r="L15" s="22"/>
       <c r="M15" s="23"/>
     </row>
@@ -1488,297 +1499,356 @@
       <c r="C16" s="3"/>
       <c r="D16" s="21"/>
       <c r="E16" s="22"/>
-      <c r="F16" s="43"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="22"/>
       <c r="H16" s="23"/>
       <c r="I16" s="21"/>
       <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
+      <c r="K16" s="45"/>
       <c r="L16" s="22"/>
       <c r="M16" s="23"/>
     </row>
-    <row r="17" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="34"/>
       <c r="C17" s="3"/>
       <c r="D17" s="18"/>
       <c r="E17" s="22"/>
-      <c r="F17" s="43"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="22"/>
       <c r="H17" s="23"/>
       <c r="I17" s="18"/>
       <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
+      <c r="K17" s="45"/>
       <c r="L17" s="22"/>
       <c r="M17" s="23"/>
     </row>
-    <row r="18" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="35"/>
       <c r="C18" s="3"/>
       <c r="D18" s="21"/>
       <c r="E18" s="22"/>
-      <c r="F18" s="43"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="22"/>
       <c r="H18" s="23"/>
       <c r="I18" s="21"/>
       <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
+      <c r="K18" s="45"/>
       <c r="L18" s="22"/>
       <c r="M18" s="23"/>
     </row>
-    <row r="19" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="33"/>
       <c r="C19" s="3"/>
       <c r="D19" s="21"/>
       <c r="E19" s="22"/>
-      <c r="F19" s="43"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="22"/>
       <c r="H19" s="23"/>
       <c r="I19" s="21"/>
       <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
+      <c r="K19" s="45"/>
       <c r="L19" s="22"/>
       <c r="M19" s="23"/>
     </row>
-    <row r="20" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="34"/>
       <c r="C20" s="3"/>
       <c r="D20" s="18"/>
       <c r="E20" s="22"/>
-      <c r="F20" s="43"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="22"/>
       <c r="H20" s="23"/>
       <c r="I20" s="18"/>
       <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
+      <c r="K20" s="45"/>
       <c r="L20" s="22"/>
       <c r="M20" s="23"/>
     </row>
-    <row r="21" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="34"/>
       <c r="C21" s="3"/>
       <c r="D21" s="18"/>
       <c r="E21" s="22"/>
-      <c r="F21" s="43"/>
+      <c r="F21" s="45"/>
       <c r="G21" s="22"/>
       <c r="H21" s="23"/>
       <c r="I21" s="18"/>
       <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
+      <c r="K21" s="45"/>
       <c r="L21" s="22"/>
       <c r="M21" s="23"/>
     </row>
-    <row r="22" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="34"/>
       <c r="C22" s="3"/>
       <c r="D22" s="21"/>
       <c r="E22" s="22"/>
-      <c r="F22" s="43"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="22"/>
       <c r="H22" s="23"/>
       <c r="I22" s="21"/>
       <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
+      <c r="K22" s="45"/>
       <c r="L22" s="22"/>
       <c r="M22" s="23"/>
     </row>
-    <row r="23" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="34"/>
       <c r="C23" s="3"/>
       <c r="D23" s="21"/>
       <c r="E23" s="22"/>
-      <c r="F23" s="43"/>
+      <c r="F23" s="45"/>
       <c r="G23" s="22"/>
       <c r="H23" s="23"/>
       <c r="I23" s="21"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
+      <c r="K23" s="45"/>
       <c r="L23" s="22"/>
       <c r="M23" s="23"/>
     </row>
-    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="36"/>
       <c r="C24" s="7"/>
       <c r="D24" s="18"/>
       <c r="E24" s="22"/>
-      <c r="F24" s="43"/>
+      <c r="F24" s="45"/>
       <c r="G24" s="22"/>
       <c r="H24" s="23"/>
       <c r="I24" s="18"/>
       <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
+      <c r="K24" s="45"/>
       <c r="L24" s="22"/>
       <c r="M24" s="23"/>
     </row>
-    <row r="25" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="34"/>
       <c r="C25" s="3"/>
       <c r="D25" s="18"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="43"/>
+      <c r="F25" s="45"/>
       <c r="G25" s="22"/>
       <c r="H25" s="23"/>
       <c r="I25" s="18"/>
       <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
+      <c r="K25" s="45"/>
       <c r="L25" s="22"/>
       <c r="M25" s="23"/>
     </row>
-    <row r="26" spans="1:14" s="15" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="15" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="37"/>
       <c r="C26" s="14"/>
       <c r="D26" s="24"/>
       <c r="E26" s="25"/>
-      <c r="F26" s="44"/>
+      <c r="F26" s="46"/>
       <c r="G26" s="25"/>
       <c r="H26" s="26"/>
       <c r="I26" s="24"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
+      <c r="K26" s="46"/>
       <c r="L26" s="25"/>
       <c r="M26" s="26"/>
     </row>
-    <row r="27" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="33"/>
       <c r="C27" s="3"/>
       <c r="D27" s="21"/>
       <c r="E27" s="22"/>
-      <c r="F27" s="43"/>
+      <c r="F27" s="45"/>
       <c r="G27" s="22"/>
       <c r="H27" s="23"/>
       <c r="I27" s="21"/>
       <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
+      <c r="K27" s="45"/>
       <c r="L27" s="22"/>
       <c r="M27" s="23"/>
     </row>
-    <row r="28" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="34"/>
       <c r="C28" s="3"/>
       <c r="D28" s="18"/>
       <c r="E28" s="22"/>
-      <c r="F28" s="43"/>
+      <c r="F28" s="45"/>
       <c r="G28" s="22"/>
       <c r="H28" s="23"/>
       <c r="I28" s="18"/>
       <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
+      <c r="K28" s="45"/>
       <c r="L28" s="22"/>
       <c r="M28" s="23"/>
     </row>
-    <row r="29" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="33"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="38"/>
+      <c r="D29" s="42"/>
       <c r="E29" s="39"/>
-      <c r="F29" s="45"/>
+      <c r="F29" s="47"/>
       <c r="G29" s="39"/>
       <c r="H29" s="40"/>
-      <c r="I29" s="38"/>
+      <c r="I29" s="42"/>
       <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
+      <c r="K29" s="47"/>
       <c r="L29" s="39"/>
       <c r="M29" s="40"/>
     </row>
-    <row r="30" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8" t="s">
+    <row r="30" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="40"/>
+    </row>
+    <row r="31" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="40"/>
+    </row>
+    <row r="32" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="40"/>
+    </row>
+    <row r="33" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="40"/>
+    </row>
+    <row r="34" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="41">
-        <f t="shared" ref="D30:L30" si="0">SUM(D7:D29)</f>
+      <c r="C34" s="8"/>
+      <c r="D34" s="41">
+        <f t="shared" ref="D34:L34" si="0">SUM(D7:D33)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E34" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="41">
+      <c r="F34" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="41">
+      <c r="G34" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H30" s="41">
+      <c r="H34" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I30" s="41">
+      <c r="I34" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J30" s="41">
+      <c r="J34" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K30" s="41">
+      <c r="K34" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L30" s="41">
+      <c r="L34" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M30" s="41">
-        <f>SUM(M7:M29)</f>
+      <c r="M34" s="41">
+        <f>SUM(M7:M33)</f>
         <v>0</v>
       </c>
-      <c r="N30" s="10"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="67"/>
-    </row>
-    <row r="33" spans="4:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="H33" s="52" t="s">
+      <c r="N34" s="10"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+    </row>
+    <row r="37" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H37" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-    </row>
-    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="D35:M35"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="I4:M4"/>
     <mergeCell ref="I5:I6"/>
@@ -1786,14 +1856,15 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="A3:M3"/>
-    <mergeCell ref="D31:M31"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <pageMargins left="0.37" right="0" top="0.25" bottom="0.28999999999999998" header="0" footer="0.05"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>